--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd160-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd160-Tnfrsf14.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.032686</v>
+        <v>2.324047</v>
       </c>
       <c r="H2">
-        <v>6.098058</v>
+        <v>6.972140999999999</v>
       </c>
       <c r="I2">
-        <v>0.2633257518865418</v>
+        <v>0.2694410417186929</v>
       </c>
       <c r="J2">
-        <v>0.2633257518865418</v>
+        <v>0.2694410417186929</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.399171333333332</v>
+        <v>5.578493666666667</v>
       </c>
       <c r="N2">
-        <v>16.197514</v>
+        <v>16.735481</v>
       </c>
       <c r="O2">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="P2">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="Q2">
-        <v>10.974819980868</v>
+        <v>12.96468147053567</v>
       </c>
       <c r="R2">
-        <v>98.77337982781199</v>
+        <v>116.682133234821</v>
       </c>
       <c r="S2">
-        <v>0.04799574761570678</v>
+        <v>0.02792306244133844</v>
       </c>
       <c r="T2">
-        <v>0.04799574761570677</v>
+        <v>0.02792306244133845</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.032686</v>
+        <v>2.324047</v>
       </c>
       <c r="H3">
-        <v>6.098058</v>
+        <v>6.972140999999999</v>
       </c>
       <c r="I3">
-        <v>0.2633257518865418</v>
+        <v>0.2694410417186929</v>
       </c>
       <c r="J3">
-        <v>0.2633257518865418</v>
+        <v>0.2694410417186929</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>11.113427</v>
       </c>
       <c r="O3">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528272</v>
       </c>
       <c r="P3">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528274</v>
       </c>
       <c r="Q3">
-        <v>7.530035824974</v>
+        <v>8.609375559689665</v>
       </c>
       <c r="R3">
-        <v>67.77032242476599</v>
+        <v>77.48438003720699</v>
       </c>
       <c r="S3">
-        <v>0.03293080885360442</v>
+        <v>0.01854269477275595</v>
       </c>
       <c r="T3">
-        <v>0.0329308088536044</v>
+        <v>0.01854269477275595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.032686</v>
+        <v>2.324047</v>
       </c>
       <c r="H4">
-        <v>6.098058</v>
+        <v>6.972140999999999</v>
       </c>
       <c r="I4">
-        <v>0.2633257518865418</v>
+        <v>0.2694410417186929</v>
       </c>
       <c r="J4">
-        <v>0.2633257518865418</v>
+        <v>0.2694410417186929</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.371866333333333</v>
+        <v>24.77295966666667</v>
       </c>
       <c r="N4">
-        <v>19.115599</v>
+        <v>74.31887900000001</v>
       </c>
       <c r="O4">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493554</v>
       </c>
       <c r="P4">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493556</v>
       </c>
       <c r="Q4">
-        <v>12.952003489638</v>
+        <v>57.57352259443766</v>
       </c>
       <c r="R4">
-        <v>116.568031406742</v>
+        <v>518.161703349939</v>
       </c>
       <c r="S4">
-        <v>0.05664248631778043</v>
+        <v>0.1240006605658527</v>
       </c>
       <c r="T4">
-        <v>0.05664248631778042</v>
+        <v>0.1240006605658527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.032686</v>
+        <v>2.324047</v>
       </c>
       <c r="H5">
-        <v>6.098058</v>
+        <v>6.972140999999999</v>
       </c>
       <c r="I5">
-        <v>0.2633257518865418</v>
+        <v>0.2694410417186929</v>
       </c>
       <c r="J5">
-        <v>0.2633257518865418</v>
+        <v>0.2694410417186929</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6319533333333333</v>
+        <v>0.4291063333333334</v>
       </c>
       <c r="N5">
-        <v>1.89586</v>
+        <v>1.287319</v>
       </c>
       <c r="O5">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749163</v>
       </c>
       <c r="P5">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749165</v>
       </c>
       <c r="Q5">
-        <v>1.28456269332</v>
+        <v>0.9972632866643333</v>
       </c>
       <c r="R5">
-        <v>11.56106423988</v>
+        <v>8.975369579978999</v>
       </c>
       <c r="S5">
-        <v>0.005617727391667255</v>
+        <v>0.002147885012622067</v>
       </c>
       <c r="T5">
-        <v>0.005617727391667254</v>
+        <v>0.002147885012622067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.032686</v>
+        <v>2.324047</v>
       </c>
       <c r="H6">
-        <v>6.098058</v>
+        <v>6.972140999999999</v>
       </c>
       <c r="I6">
-        <v>0.2633257518865418</v>
+        <v>0.2694410417186929</v>
       </c>
       <c r="J6">
-        <v>0.2633257518865418</v>
+        <v>0.2694410417186929</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.51475866666667</v>
+        <v>19.34413</v>
       </c>
       <c r="N6">
-        <v>40.544276</v>
+        <v>58.03239</v>
       </c>
       <c r="O6">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692841</v>
       </c>
       <c r="P6">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692842</v>
       </c>
       <c r="Q6">
-        <v>27.471260735112</v>
+        <v>44.95666729411</v>
       </c>
       <c r="R6">
-        <v>247.241346616008</v>
+        <v>404.6100056469899</v>
       </c>
       <c r="S6">
-        <v>0.1201389817077829</v>
+        <v>0.09682673892612377</v>
       </c>
       <c r="T6">
-        <v>0.1201389817077829</v>
+        <v>0.09682673892612378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4.277229</v>
       </c>
       <c r="I7">
-        <v>0.1846988897803073</v>
+        <v>0.1652951421133628</v>
       </c>
       <c r="J7">
-        <v>0.1846988897803073</v>
+        <v>0.1652951421133628</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.399171333333332</v>
+        <v>5.578493666666667</v>
       </c>
       <c r="N7">
-        <v>16.197514</v>
+        <v>16.735481</v>
       </c>
       <c r="O7">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="P7">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="Q7">
-        <v>7.697830734300665</v>
+        <v>7.953498295794334</v>
       </c>
       <c r="R7">
-        <v>69.280476608706</v>
+        <v>71.58148466214901</v>
       </c>
       <c r="S7">
-        <v>0.03366461971640511</v>
+        <v>0.01713007990557041</v>
       </c>
       <c r="T7">
-        <v>0.0336646197164051</v>
+        <v>0.01713007990557042</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4.277229</v>
       </c>
       <c r="I8">
-        <v>0.1846988897803073</v>
+        <v>0.1652951421133628</v>
       </c>
       <c r="J8">
-        <v>0.1846988897803073</v>
+        <v>0.1652951421133628</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>11.113427</v>
       </c>
       <c r="O8">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528272</v>
       </c>
       <c r="P8">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528274</v>
       </c>
       <c r="Q8">
         <v>5.281630250420333</v>
@@ -948,10 +948,10 @@
         <v>47.534672253783</v>
       </c>
       <c r="S8">
-        <v>0.02309794538229934</v>
+        <v>0.0113754658461698</v>
       </c>
       <c r="T8">
-        <v>0.02309794538229934</v>
+        <v>0.01137546584616981</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4.277229</v>
       </c>
       <c r="I9">
-        <v>0.1846988897803073</v>
+        <v>0.1652951421133628</v>
       </c>
       <c r="J9">
-        <v>0.1846988897803073</v>
+        <v>0.1652951421133628</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.371866333333333</v>
+        <v>24.77295966666667</v>
       </c>
       <c r="N9">
-        <v>19.115599</v>
+        <v>74.31887900000001</v>
       </c>
       <c r="O9">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493554</v>
       </c>
       <c r="P9">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493556</v>
       </c>
       <c r="Q9">
-        <v>9.084643821685667</v>
+        <v>35.31987383403234</v>
       </c>
       <c r="R9">
-        <v>81.76179439517099</v>
+        <v>317.8788645062911</v>
       </c>
       <c r="S9">
-        <v>0.0397295147259199</v>
+        <v>0.07607121275823617</v>
       </c>
       <c r="T9">
-        <v>0.0397295147259199</v>
+        <v>0.07607121275823621</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4.277229</v>
       </c>
       <c r="I10">
-        <v>0.1846988897803073</v>
+        <v>0.1652951421133628</v>
       </c>
       <c r="J10">
-        <v>0.1846988897803073</v>
+        <v>0.1652951421133628</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6319533333333333</v>
+        <v>0.4291063333333334</v>
       </c>
       <c r="N10">
-        <v>1.89586</v>
+        <v>1.287319</v>
       </c>
       <c r="O10">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749163</v>
       </c>
       <c r="P10">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749165</v>
       </c>
       <c r="Q10">
-        <v>0.9010030413266665</v>
+        <v>0.6117953510056667</v>
       </c>
       <c r="R10">
-        <v>8.10902737194</v>
+        <v>5.506158159051001</v>
       </c>
       <c r="S10">
-        <v>0.003940321084800037</v>
+        <v>0.00131767215617878</v>
       </c>
       <c r="T10">
-        <v>0.003940321084800037</v>
+        <v>0.00131767215617878</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4.277229</v>
       </c>
       <c r="I11">
-        <v>0.1846988897803073</v>
+        <v>0.1652951421133628</v>
       </c>
       <c r="J11">
-        <v>0.1846988897803073</v>
+        <v>0.1652951421133628</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.51475866666667</v>
+        <v>19.34413</v>
       </c>
       <c r="N11">
-        <v>40.544276</v>
+        <v>58.03239</v>
       </c>
       <c r="O11">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692841</v>
       </c>
       <c r="P11">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692842</v>
       </c>
       <c r="Q11">
-        <v>19.26857256568933</v>
+        <v>27.57975793859</v>
       </c>
       <c r="R11">
-        <v>173.417153091204</v>
+        <v>248.21782144731</v>
       </c>
       <c r="S11">
-        <v>0.08426648887088294</v>
+        <v>0.05940071144720761</v>
       </c>
       <c r="T11">
-        <v>0.08426648887088292</v>
+        <v>0.05940071144720763</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.933781333333333</v>
+        <v>2.77793</v>
       </c>
       <c r="H12">
-        <v>5.801344</v>
+        <v>8.33379</v>
       </c>
       <c r="I12">
-        <v>0.2505130765815081</v>
+        <v>0.3220624854065381</v>
       </c>
       <c r="J12">
-        <v>0.2505130765815081</v>
+        <v>0.3220624854065382</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.399171333333332</v>
+        <v>5.578493666666667</v>
       </c>
       <c r="N12">
-        <v>16.197514</v>
+        <v>16.735481</v>
       </c>
       <c r="O12">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="P12">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="Q12">
-        <v>10.44081673986844</v>
+        <v>15.49666491144333</v>
       </c>
       <c r="R12">
-        <v>93.96735065881599</v>
+        <v>139.46998420299</v>
       </c>
       <c r="S12">
-        <v>0.04566041229124006</v>
+        <v>0.03337639593677207</v>
       </c>
       <c r="T12">
-        <v>0.04566041229124006</v>
+        <v>0.03337639593677208</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.933781333333333</v>
+        <v>2.77793</v>
       </c>
       <c r="H13">
-        <v>5.801344</v>
+        <v>8.33379</v>
       </c>
       <c r="I13">
-        <v>0.2505130765815081</v>
+        <v>0.3220624854065381</v>
       </c>
       <c r="J13">
-        <v>0.2505130765815081</v>
+        <v>0.3220624854065382</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>11.113427</v>
       </c>
       <c r="O13">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528272</v>
       </c>
       <c r="P13">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528274</v>
       </c>
       <c r="Q13">
-        <v>7.163645893987556</v>
+        <v>10.29077408870333</v>
       </c>
       <c r="R13">
-        <v>64.472813045888</v>
+        <v>92.61696679833</v>
       </c>
       <c r="S13">
-        <v>0.03132849021081873</v>
+        <v>0.02216405610131032</v>
       </c>
       <c r="T13">
-        <v>0.03132849021081872</v>
+        <v>0.02216405610131033</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.933781333333333</v>
+        <v>2.77793</v>
       </c>
       <c r="H14">
-        <v>5.801344</v>
+        <v>8.33379</v>
       </c>
       <c r="I14">
-        <v>0.2505130765815081</v>
+        <v>0.3220624854065381</v>
       </c>
       <c r="J14">
-        <v>0.2505130765815081</v>
+        <v>0.3220624854065382</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.371866333333333</v>
+        <v>24.77295966666667</v>
       </c>
       <c r="N14">
-        <v>19.115599</v>
+        <v>74.31887900000001</v>
       </c>
       <c r="O14">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493554</v>
       </c>
       <c r="P14">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493556</v>
       </c>
       <c r="Q14">
-        <v>12.32179617389511</v>
+        <v>68.81754784682335</v>
       </c>
       <c r="R14">
-        <v>110.896165565056</v>
+        <v>619.3579306214101</v>
       </c>
       <c r="S14">
-        <v>0.05388642550542116</v>
+        <v>0.148217809280836</v>
       </c>
       <c r="T14">
-        <v>0.05388642550542116</v>
+        <v>0.1482178092808361</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.933781333333333</v>
+        <v>2.77793</v>
       </c>
       <c r="H15">
-        <v>5.801344</v>
+        <v>8.33379</v>
       </c>
       <c r="I15">
-        <v>0.2505130765815081</v>
+        <v>0.3220624854065381</v>
       </c>
       <c r="J15">
-        <v>0.2505130765815081</v>
+        <v>0.3220624854065382</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6319533333333333</v>
+        <v>0.4291063333333334</v>
       </c>
       <c r="N15">
-        <v>1.89586</v>
+        <v>1.287319</v>
       </c>
       <c r="O15">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749163</v>
       </c>
       <c r="P15">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749165</v>
       </c>
       <c r="Q15">
-        <v>1.222059559537778</v>
+        <v>1.192027356556667</v>
       </c>
       <c r="R15">
-        <v>10.99853603584</v>
+        <v>10.72824620901</v>
       </c>
       <c r="S15">
-        <v>0.00534438490045265</v>
+        <v>0.00256736383262181</v>
       </c>
       <c r="T15">
-        <v>0.005344384900452649</v>
+        <v>0.002567363832621811</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.933781333333333</v>
+        <v>2.77793</v>
       </c>
       <c r="H16">
-        <v>5.801344</v>
+        <v>8.33379</v>
       </c>
       <c r="I16">
-        <v>0.2505130765815081</v>
+        <v>0.3220624854065381</v>
       </c>
       <c r="J16">
-        <v>0.2505130765815081</v>
+        <v>0.3220624854065382</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.51475866666667</v>
+        <v>19.34413</v>
       </c>
       <c r="N16">
-        <v>40.544276</v>
+        <v>58.03239</v>
       </c>
       <c r="O16">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692841</v>
       </c>
       <c r="P16">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692842</v>
       </c>
       <c r="Q16">
-        <v>26.13458803410489</v>
+        <v>53.7366390509</v>
       </c>
       <c r="R16">
-        <v>235.211292306944</v>
+        <v>483.6297514581</v>
       </c>
       <c r="S16">
-        <v>0.1142933636735755</v>
+        <v>0.1157368602549979</v>
       </c>
       <c r="T16">
-        <v>0.1142933636735754</v>
+        <v>0.1157368602549979</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2285763333333334</v>
+        <v>0.4528016666666666</v>
       </c>
       <c r="H17">
-        <v>0.685729</v>
+        <v>1.358405</v>
       </c>
       <c r="I17">
-        <v>0.02961108348188988</v>
+        <v>0.05249607807356178</v>
       </c>
       <c r="J17">
-        <v>0.02961108348188988</v>
+        <v>0.05249607807356178</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.399171333333332</v>
+        <v>5.578493666666667</v>
       </c>
       <c r="N17">
-        <v>16.197514</v>
+        <v>16.735481</v>
       </c>
       <c r="O17">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="P17">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="Q17">
-        <v>1.234122786411778</v>
+        <v>2.525951229756111</v>
       </c>
       <c r="R17">
-        <v>11.107105077706</v>
+        <v>22.733561067805</v>
       </c>
       <c r="S17">
-        <v>0.005397140535031151</v>
+        <v>0.005440341443987771</v>
       </c>
       <c r="T17">
-        <v>0.00539714053503115</v>
+        <v>0.005440341443987774</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2285763333333334</v>
+        <v>0.4528016666666666</v>
       </c>
       <c r="H18">
-        <v>0.685729</v>
+        <v>1.358405</v>
       </c>
       <c r="I18">
-        <v>0.02961108348188988</v>
+        <v>0.05249607807356178</v>
       </c>
       <c r="J18">
-        <v>0.02961108348188988</v>
+        <v>0.05249607807356178</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>11.113427</v>
       </c>
       <c r="O18">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528272</v>
       </c>
       <c r="P18">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528274</v>
       </c>
       <c r="Q18">
-        <v>0.8467554648092223</v>
+        <v>1.677392755992777</v>
       </c>
       <c r="R18">
-        <v>7.620799183283</v>
+        <v>15.096534803935</v>
       </c>
       <c r="S18">
-        <v>0.003703082296753049</v>
+        <v>0.003612733777585042</v>
       </c>
       <c r="T18">
-        <v>0.003703082296753048</v>
+        <v>0.003612733777585043</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2285763333333334</v>
+        <v>0.4528016666666666</v>
       </c>
       <c r="H19">
-        <v>0.685729</v>
+        <v>1.358405</v>
       </c>
       <c r="I19">
-        <v>0.02961108348188988</v>
+        <v>0.05249607807356178</v>
       </c>
       <c r="J19">
-        <v>0.02961108348188988</v>
+        <v>0.05249607807356178</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.371866333333333</v>
+        <v>24.77295966666667</v>
       </c>
       <c r="N19">
-        <v>19.115599</v>
+        <v>74.31887900000001</v>
       </c>
       <c r="O19">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493554</v>
       </c>
       <c r="P19">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493556</v>
       </c>
       <c r="Q19">
-        <v>1.456457842963444</v>
+        <v>11.21723742533278</v>
       </c>
       <c r="R19">
-        <v>13.108120586671</v>
+        <v>100.955136827995</v>
       </c>
       <c r="S19">
-        <v>0.00636946967382161</v>
+        <v>0.02415945364787618</v>
       </c>
       <c r="T19">
-        <v>0.006369469673821609</v>
+        <v>0.02415945364787619</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2285763333333334</v>
+        <v>0.4528016666666666</v>
       </c>
       <c r="H20">
-        <v>0.685729</v>
+        <v>1.358405</v>
       </c>
       <c r="I20">
-        <v>0.02961108348188988</v>
+        <v>0.05249607807356178</v>
       </c>
       <c r="J20">
-        <v>0.02961108348188988</v>
+        <v>0.05249607807356178</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6319533333333333</v>
+        <v>0.4291063333333334</v>
       </c>
       <c r="N20">
-        <v>1.89586</v>
+        <v>1.287319</v>
       </c>
       <c r="O20">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749163</v>
       </c>
       <c r="P20">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749165</v>
       </c>
       <c r="Q20">
-        <v>0.1444495757711111</v>
+        <v>0.1943000629105555</v>
       </c>
       <c r="R20">
-        <v>1.30004618194</v>
+        <v>1.748700566195</v>
       </c>
       <c r="S20">
-        <v>0.0006317156357910331</v>
+        <v>0.0004184794513723803</v>
       </c>
       <c r="T20">
-        <v>0.000631715635791033</v>
+        <v>0.0004184794513723805</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2285763333333334</v>
+        <v>0.4528016666666666</v>
       </c>
       <c r="H21">
-        <v>0.685729</v>
+        <v>1.358405</v>
       </c>
       <c r="I21">
-        <v>0.02961108348188988</v>
+        <v>0.05249607807356178</v>
       </c>
       <c r="J21">
-        <v>0.02961108348188988</v>
+        <v>0.05249607807356178</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.51475866666667</v>
+        <v>19.34413</v>
       </c>
       <c r="N21">
-        <v>40.544276</v>
+        <v>58.03239</v>
       </c>
       <c r="O21">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692841</v>
       </c>
       <c r="P21">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692842</v>
       </c>
       <c r="Q21">
-        <v>3.089153981911556</v>
+        <v>8.759054304216665</v>
       </c>
       <c r="R21">
-        <v>27.802385837204</v>
+        <v>78.83148873795</v>
       </c>
       <c r="S21">
-        <v>0.01350967534049304</v>
+        <v>0.01886506975274039</v>
       </c>
       <c r="T21">
-        <v>0.01350967534049303</v>
+        <v>0.0188650697527404</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.098496333333333</v>
+        <v>1.644916333333333</v>
       </c>
       <c r="H22">
-        <v>6.295489</v>
+        <v>4.934749</v>
       </c>
       <c r="I22">
-        <v>0.271851198269753</v>
+        <v>0.1907052526878442</v>
       </c>
       <c r="J22">
-        <v>0.271851198269753</v>
+        <v>0.1907052526878442</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.399171333333332</v>
+        <v>5.578493666666667</v>
       </c>
       <c r="N22">
-        <v>16.197514</v>
+        <v>16.735481</v>
       </c>
       <c r="O22">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="P22">
-        <v>0.1822675802569683</v>
+        <v>0.1036332930693284</v>
       </c>
       <c r="Q22">
-        <v>11.33014124603844</v>
+        <v>9.176155347696556</v>
       </c>
       <c r="R22">
-        <v>101.971271214346</v>
+        <v>82.585398129269</v>
       </c>
       <c r="S22">
-        <v>0.0495496600985852</v>
+        <v>0.01976341334165968</v>
       </c>
       <c r="T22">
-        <v>0.04954966009858519</v>
+        <v>0.01976341334165969</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.098496333333333</v>
+        <v>1.644916333333333</v>
       </c>
       <c r="H23">
-        <v>6.295489</v>
+        <v>4.934749</v>
       </c>
       <c r="I23">
-        <v>0.271851198269753</v>
+        <v>0.1907052526878442</v>
       </c>
       <c r="J23">
-        <v>0.271851198269753</v>
+        <v>0.1907052526878442</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>11.113427</v>
       </c>
       <c r="O23">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528272</v>
       </c>
       <c r="P23">
-        <v>0.1250573049452193</v>
+        <v>0.06881911773528274</v>
       </c>
       <c r="Q23">
-        <v>7.773828603422555</v>
+        <v>6.09355253053589</v>
       </c>
       <c r="R23">
-        <v>69.96445743080299</v>
+        <v>54.841972774823</v>
       </c>
       <c r="S23">
-        <v>0.03399697820174377</v>
+        <v>0.01312416723746159</v>
       </c>
       <c r="T23">
-        <v>0.03399697820174376</v>
+        <v>0.01312416723746159</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.098496333333333</v>
+        <v>1.644916333333333</v>
       </c>
       <c r="H24">
-        <v>6.295489</v>
+        <v>4.934749</v>
       </c>
       <c r="I24">
-        <v>0.271851198269753</v>
+        <v>0.1907052526878442</v>
       </c>
       <c r="J24">
-        <v>0.271851198269753</v>
+        <v>0.1907052526878442</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.371866333333333</v>
+        <v>24.77295966666667</v>
       </c>
       <c r="N24">
-        <v>19.115599</v>
+        <v>74.31887900000001</v>
       </c>
       <c r="O24">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493554</v>
       </c>
       <c r="P24">
-        <v>0.2151042422246107</v>
+        <v>0.4602144490493556</v>
       </c>
       <c r="Q24">
-        <v>13.37133813699011</v>
+        <v>40.7494459807079</v>
       </c>
       <c r="R24">
-        <v>120.342043232911</v>
+        <v>366.7450138263711</v>
       </c>
       <c r="S24">
-        <v>0.05847634600166762</v>
+        <v>0.08776531279655431</v>
       </c>
       <c r="T24">
-        <v>0.05847634600166761</v>
+        <v>0.08776531279655435</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.098496333333333</v>
+        <v>1.644916333333333</v>
       </c>
       <c r="H25">
-        <v>6.295489</v>
+        <v>4.934749</v>
       </c>
       <c r="I25">
-        <v>0.271851198269753</v>
+        <v>0.1907052526878442</v>
       </c>
       <c r="J25">
-        <v>0.271851198269753</v>
+        <v>0.1907052526878442</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.6319533333333333</v>
+        <v>0.4291063333333334</v>
       </c>
       <c r="N25">
-        <v>1.89586</v>
+        <v>1.287319</v>
       </c>
       <c r="O25">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749163</v>
       </c>
       <c r="P25">
-        <v>0.02133375619900535</v>
+        <v>0.007971632676749165</v>
       </c>
       <c r="Q25">
-        <v>1.326151752837778</v>
+        <v>0.7058440164367779</v>
       </c>
       <c r="R25">
-        <v>11.93536577554</v>
+        <v>6.352596147931001</v>
       </c>
       <c r="S25">
-        <v>0.005799607186294374</v>
+        <v>0.001520232223954125</v>
       </c>
       <c r="T25">
-        <v>0.005799607186294373</v>
+        <v>0.001520232223954125</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.098496333333333</v>
+        <v>1.644916333333333</v>
       </c>
       <c r="H26">
-        <v>6.295489</v>
+        <v>4.934749</v>
       </c>
       <c r="I26">
-        <v>0.271851198269753</v>
+        <v>0.1907052526878442</v>
       </c>
       <c r="J26">
-        <v>0.271851198269753</v>
+        <v>0.1907052526878442</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.51475866666667</v>
+        <v>19.34413</v>
       </c>
       <c r="N26">
-        <v>40.544276</v>
+        <v>58.03239</v>
       </c>
       <c r="O26">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692841</v>
       </c>
       <c r="P26">
-        <v>0.4562371163741963</v>
+        <v>0.3593615074692842</v>
       </c>
       <c r="Q26">
-        <v>28.36067150788489</v>
+        <v>31.81947539112333</v>
       </c>
       <c r="R26">
-        <v>255.246043570964</v>
+        <v>286.37527852011</v>
       </c>
       <c r="S26">
-        <v>0.124028606781462</v>
+        <v>0.06853212708821443</v>
       </c>
       <c r="T26">
-        <v>0.124028606781462</v>
+        <v>0.06853212708821445</v>
       </c>
     </row>
   </sheetData>
